--- a/biology/Neurosciences/Machine_de_Boltzmann_restreinte/Machine_de_Boltzmann_restreinte.xlsx
+++ b/biology/Neurosciences/Machine_de_Boltzmann_restreinte/Machine_de_Boltzmann_restreinte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En apprentissage automatique, la machine de Boltzmann restreinte est un type de réseau de neurones artificiels pour l'apprentissage non supervisé. Elle est couramment utilisée pour avoir une estimation de la distribution probabiliste d'un jeu de données. Elle a initialement été inventée sous le nom de Harmonium en 1986 par Paul Smolenski[1]. La machine de Boltzmann restreinte rentre dans le cadre des modèles graphiques et des modèles à base d'énergie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En apprentissage automatique, la machine de Boltzmann restreinte est un type de réseau de neurones artificiels pour l'apprentissage non supervisé. Elle est couramment utilisée pour avoir une estimation de la distribution probabiliste d'un jeu de données. Elle a initialement été inventée sous le nom de Harmonium en 1986 par Paul Smolenski. La machine de Boltzmann restreinte rentre dans le cadre des modèles graphiques et des modèles à base d'énergie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans sa forme la plus simple, une machine de Boltzmann est composée d'une couche de neurones qui reçoit l'entrée, ainsi que d'une couche de neurones cachée. Si on suppose que les neurones d'une même couche sont indépendants entre eux, on appelle cette configuration une machine de Boltzmann restreinte (RBM).
 On définit l'énergie pour une configuration de donnée de la manière suivante : 
@@ -607,7 +621,7 @@
             j
         )
     {\displaystyle (x_{i},h_{j})}
- est alors donnée par[3]
+ est alors donnée par
         P
         (
           x
@@ -667,7 +681,9 @@
           <t>Apprentissage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La machine de Boltzmann s’entraîne à l'aide d'un apprentissage non supervisé. On cherche à minimiser la log-vraisemblance. La dérivée de la log-vraisemblance donne l'expression suivante:
               ∂
@@ -757,7 +773,7 @@
     {\displaystyle E(x,h)}
  l'énergie définie ci-dessus.
 On remarque la présence de deux termes dans cette expression, appelés phase positive et phase négative. La phase positive se calcule aisément pour le biais et pour la matrice des poids.
-On obtient alors[4]:
+On obtient alors:
             E
             h
           [
@@ -844,7 +860,7 @@
         H
     {\displaystyle H}
 .
-De la même manière, on peut recalculer l'état de la couche cachée en réitérant le procédé. Finalement, on peut résumer l'algorithme de descente du gradient ainsi[5] (on parle de l'algorithme de Contrastive Divergence, couramment abrégé CD-k)
+De la même manière, on peut recalculer l'état de la couche cachée en réitérant le procédé. Finalement, on peut résumer l'algorithme de descente du gradient ainsi (on parle de l'algorithme de Contrastive Divergence, couramment abrégé CD-k)
 x &lt;= x(t)
 h &lt;= W*x + b
 phasePositive &lt;= -h*Transpose(x)
@@ -884,7 +900,9 @@
           <t>Extension</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La machine de Boltzmann restreinte est en fait un cas particulier de Machine de Boltzmann où les neurones d'une même couche sont indépendants entre eux. Les calculs sont grandement facilités par cette approximation mais les résultats obtenus sont moins bons.[réf. nécessaire]
 </t>
